--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,193 @@
   <si>
     <t>ss</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四2</t>
+  </si>
+  <si>
+    <t>李四3</t>
+  </si>
+  <si>
+    <t>李四4</t>
+  </si>
+  <si>
+    <t>李四5</t>
+  </si>
+  <si>
+    <t>李四6</t>
+  </si>
+  <si>
+    <t>李四7</t>
+  </si>
+  <si>
+    <t>李四8</t>
+  </si>
+  <si>
+    <t>李四9</t>
+  </si>
+  <si>
+    <t>李四10</t>
+  </si>
+  <si>
+    <t>李四11</t>
+  </si>
+  <si>
+    <t>李四12</t>
+  </si>
+  <si>
+    <t>李四13</t>
+  </si>
+  <si>
+    <t>李四14</t>
+  </si>
+  <si>
+    <t>李四15</t>
+  </si>
+  <si>
+    <t>李四16</t>
+  </si>
+  <si>
+    <t>李四17</t>
+  </si>
+  <si>
+    <t>李四18</t>
+  </si>
+  <si>
+    <t>李四19</t>
+  </si>
+  <si>
+    <t>李四20</t>
+  </si>
+  <si>
+    <t>大地22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大地23</t>
+  </si>
+  <si>
+    <t>大地24</t>
+  </si>
+  <si>
+    <t>大地25</t>
+  </si>
+  <si>
+    <t>大地26</t>
+  </si>
+  <si>
+    <t>大地27</t>
+  </si>
+  <si>
+    <t>大地28</t>
+  </si>
+  <si>
+    <t>大地29</t>
+  </si>
+  <si>
+    <t>大地30</t>
+  </si>
+  <si>
+    <t>大地31</t>
+  </si>
+  <si>
+    <t>大地32</t>
+  </si>
+  <si>
+    <t>大地33</t>
+  </si>
+  <si>
+    <t>大地34</t>
+  </si>
+  <si>
+    <t>大地35</t>
+  </si>
+  <si>
+    <t>大地36</t>
+  </si>
+  <si>
+    <t>大地37</t>
+  </si>
+  <si>
+    <t>大地38</t>
+  </si>
+  <si>
+    <t>大地39</t>
+  </si>
+  <si>
+    <t>大地40</t>
+  </si>
+  <si>
+    <t>大地41</t>
+  </si>
+  <si>
+    <t>ss2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss3</t>
+  </si>
+  <si>
+    <t>ss4</t>
+  </si>
+  <si>
+    <t>ss5</t>
+  </si>
+  <si>
+    <t>ss6</t>
+  </si>
+  <si>
+    <t>ss7</t>
+  </si>
+  <si>
+    <t>ss8</t>
+  </si>
+  <si>
+    <t>ss9</t>
+  </si>
+  <si>
+    <t>ss10</t>
+  </si>
+  <si>
+    <t>ss11</t>
+  </si>
+  <si>
+    <t>ss12</t>
+  </si>
+  <si>
+    <t>ss13</t>
+  </si>
+  <si>
+    <t>ss14</t>
+  </si>
+  <si>
+    <t>ss15</t>
+  </si>
+  <si>
+    <t>ss16</t>
+  </si>
+  <si>
+    <t>ss17</t>
+  </si>
+  <si>
+    <t>ss18</t>
+  </si>
+  <si>
+    <t>ss19</t>
+  </si>
+  <si>
+    <t>ss20</t>
+  </si>
+  <si>
+    <t>ss21</t>
   </si>
 </sst>
 </file>
@@ -392,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H3" sqref="H3:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -435,6 +622,541 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="D2">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>33</v>
+      </c>
+      <c r="H2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>29</v>
+      </c>
+      <c r="F10">
+        <v>19</v>
+      </c>
+      <c r="G10">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>31</v>
+      </c>
+      <c r="F12">
+        <v>21</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>32</v>
+      </c>
+      <c r="F13">
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>33</v>
+      </c>
+      <c r="F14">
+        <v>23</v>
+      </c>
+      <c r="G14">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>34</v>
+      </c>
+      <c r="F15">
+        <v>24</v>
+      </c>
+      <c r="G15">
+        <v>33</v>
+      </c>
+      <c r="H15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>35</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>36</v>
+      </c>
+      <c r="F17">
+        <v>26</v>
+      </c>
+      <c r="G17">
+        <v>35</v>
+      </c>
+      <c r="H17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>37</v>
+      </c>
+      <c r="F18">
+        <v>27</v>
+      </c>
+      <c r="G18">
+        <v>36</v>
+      </c>
+      <c r="H18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19">
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>38</v>
+      </c>
+      <c r="F19">
+        <v>28</v>
+      </c>
+      <c r="G19">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20">
+        <v>29</v>
+      </c>
+      <c r="E20">
+        <v>39</v>
+      </c>
+      <c r="F20">
+        <v>29</v>
+      </c>
+      <c r="G20">
+        <v>38</v>
+      </c>
+      <c r="H20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>40</v>
+      </c>
+      <c r="F21">
+        <v>30</v>
+      </c>
+      <c r="G21">
+        <v>39</v>
+      </c>
+      <c r="H21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22">
+        <v>31</v>
+      </c>
+      <c r="E22">
+        <v>41</v>
+      </c>
+      <c r="F22">
+        <v>31</v>
+      </c>
+      <c r="G22">
+        <v>39</v>
+      </c>
+      <c r="H22" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -4,57 +4,57 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="学生信息" sheetId="1" r:id="rId1"/>
+    <sheet name="班级信息" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>子组织</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>abc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>dd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>dd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>李四1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>李四2</t>
@@ -115,7 +115,7 @@
   </si>
   <si>
     <t>大地22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大地23</t>
@@ -176,7 +176,7 @@
   </si>
   <si>
     <t>ss2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ss3</t>
@@ -234,19 +234,714 @@
   </si>
   <si>
     <t>ss21</t>
+  </si>
+  <si>
+    <t>班级名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级年级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级2</t>
+  </si>
+  <si>
+    <t>班级3</t>
+  </si>
+  <si>
+    <t>班级4</t>
+  </si>
+  <si>
+    <t>班级5</t>
+  </si>
+  <si>
+    <t>班级6</t>
+  </si>
+  <si>
+    <t>班级7</t>
+  </si>
+  <si>
+    <t>班级8</t>
+  </si>
+  <si>
+    <t>班级9</t>
+  </si>
+  <si>
+    <t>班级10</t>
+  </si>
+  <si>
+    <t>班级11</t>
+  </si>
+  <si>
+    <t>班级12</t>
+  </si>
+  <si>
+    <t>班级13</t>
+  </si>
+  <si>
+    <t>班级14</t>
+  </si>
+  <si>
+    <t>班级15</t>
+  </si>
+  <si>
+    <t>班级16</t>
+  </si>
+  <si>
+    <t>班级17</t>
+  </si>
+  <si>
+    <t>班级18</t>
+  </si>
+  <si>
+    <t>班级19</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -284,7 +979,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -581,7 +1276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H3" sqref="H3:H22"/>
     </sheetView>
   </sheetViews>
@@ -1160,7 +1855,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1168,13 +1863,237 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2">
+        <v>2009</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3">
+        <v>2010</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <v>2011</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <v>2012</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6">
+        <v>2013</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7">
+        <v>2014</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8">
+        <v>2015</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9">
+        <v>2016</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>2017</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11">
+        <v>2018</v>
+      </c>
+      <c r="C11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12">
+        <v>2019</v>
+      </c>
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13">
+        <v>2020</v>
+      </c>
+      <c r="C13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14">
+        <v>2021</v>
+      </c>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15">
+        <v>2022</v>
+      </c>
+      <c r="C15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16">
+        <v>2023</v>
+      </c>
+      <c r="C16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17">
+        <v>2024</v>
+      </c>
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18">
+        <v>2025</v>
+      </c>
+      <c r="C18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19">
+        <v>2026</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20">
+        <v>2027</v>
+      </c>
+      <c r="C20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>